--- a/eda/vlsp_chunk/dev/column-1-analyze.xlsx
+++ b/eda/vlsp_chunk/dev/column-1-analyze.xlsx
@@ -14,39 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>nhiều, khác, lớn, nhất, hơn, cùng, cao, gần, mới, đầu_tiên</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>oxy, ăcqui, dioxin, oxy_shop, bar, Oxy_shop, marketing, copywriter, knock-out, tour</t>
+    <t>nhiều, khác, lớn, nhất, hơn, cùng, cao, gần, đầu tiên, mới</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>và, nhưng, thì, mà, là, như, rồi, Nhưng, nếu, nên</t>
+    <t>và, nhưng, thì, mà, là, như, rồi, Nhưng, nếu, hay</t>
   </si>
   <si>
     <t>CH</t>
   </si>
   <si>
-    <t>,, ., ", :, -, ..., RBKT, LBKT, ?, !</t>
+    <t>,, ., ", :, -, ..., LBKT, RBKT, ?, !</t>
   </si>
   <si>
     <t>E</t>
@@ -55,28 +49,34 @@
     <t>của, trong, cho, với, ở, để, vào, trên, từ, đến</t>
   </si>
   <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>oxy, ăcqui, dioxin, oxy shop, Oxy shop, marketing, knock-out, copywriter, bar, judo</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
-    <t>ơi, ạ, Vâng, nha, ư</t>
+    <t>ơi, ạ, Vâng, ư, nha</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>những, các, Những, mọi, vài, mấy, một_số, Các, mỗi, Mỗi</t>
+    <t>những, các, Những, mọi, vài, mấy, Các, một số, mỗi, Mỗi</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>một, hai, ba, 2, 10, 1, 30, 3, Một, 20</t>
+    <t>một, hai, ba, 10, 2, 1, 30, 3, Một, 20</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>người, nhà, khi, năm, ngày, chị, anh, chó, rừng, dân</t>
+    <t>người, nhà, khi, ngày, năm, chị, anh, chó, rừng, dân</t>
   </si>
   <si>
     <t>Nc</t>
@@ -88,25 +88,25 @@
     <t>Np</t>
   </si>
   <si>
-    <t>Lan, Nam, Thắng, Mỹ, Muay_Thái, Bình, Đảng, Hàn, Mười, Lào</t>
+    <t>Lan, Nam, Thắng, Mỹ, Muay Thái, Bình, Đảng, Mười, Lào, Hàn</t>
   </si>
   <si>
     <t>Nu</t>
   </si>
   <si>
-    <t>đồng, kg, g, tuổi, m, lít, đ, phút, USD, baht</t>
+    <t>đồng, kg, g, tuổi, m, lít, đ, phút, USD, km</t>
   </si>
   <si>
     <t>Ny</t>
   </si>
   <si>
-    <t>VN, TP, NKT, ĐH, Th, DN, SV, Kh., UBND, TP.HCM</t>
+    <t>VN, TP, NKT, ĐH, Th, DN, Kh., SV, UBND, TP.HCM</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>mình, này, đó, tôi, chúng_tôi, ấy, đây, cả, họ, nào</t>
+    <t>mình, này, đó, tôi, chúng tôi, ấy, đây, cả, họ, nào</t>
   </si>
   <si>
     <t>R</t>
@@ -115,16 +115,10 @@
     <t>không, đã, được, cũng, lại, chỉ, ra, sẽ, rất, vẫn</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Phó, phó, nguyên, bất, đa, vô, tân, tái, hóa</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
-    <t>cả, đến, ngay, chính, thôi, riêng, Thế, đâu, hở, Chính</t>
+    <t>cả, đến, ngay, chính, thôi, Thế, riêng, Chính, hở, rồi</t>
   </si>
   <si>
     <t>V</t>
@@ -136,13 +130,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>vì_sao, Tại_sao, ngày_càng, như_thế_nào, dường_như, nhất_là, Vì_sao, thật_ra, vừa_qua, tại_sao</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>1A, A</t>
+    <t>vì sao, Tại sao, ngày càng, như thế nào, thật ra, vừa qua, Vì sao, dường như, nhất là, vào khoảng</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Phó, phó, nguyên, tái, đa, hóa, vô, bất, tân</t>
   </si>
 </sst>
 </file>
@@ -491,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,220 +508,209 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
         <v>1495</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>845</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3204</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
-        <v>3204</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1492</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
-        <v>1492</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
         <v>450</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
         <v>818</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
         <v>5547</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
         <v>493</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="n">
-        <v>879</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
         <v>139</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
         <v>163</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
         <v>885</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
         <v>1749</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="n">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="n">
-        <v>153</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>36</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4194</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="n">
-        <v>4194</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>38</v>
+      </c>
+      <c r="C19" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="n">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
+      <c r="C20" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
